--- a/Excel/Ch. 04. Excel - Mean and Standard Deviations.xlsx
+++ b/Excel/Ch. 04. Excel - Mean and Standard Deviations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\- - PROGRAMS AND DATA\Chapter 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,9 +57,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Estimate of standard deviation of population σ = </t>
-  </si>
-  <si>
     <t>Mean and Standard Deviations</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
       </rPr>
       <t xml:space="preserve"> are evaluated</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate of standard   deviation of population σ = </t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -487,45 +487,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,39 +568,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +887,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,160 +902,160 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="24"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="6">
         <f>COUNT(A1:A13457)</f>
         <v>10</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="24"/>
-      <c r="F13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
         <f>SUM(A1:A11999)/N</f>
         <v>5.5</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="24"/>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="E14" s="15"/>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
         <f>SQRT((SUMSQ(A1:A11999)-2*M*SUM(A1:A11999)+N*M^2)/N)</f>
         <v>2.8722813232690143</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
         <f>SX/SQRT(N-1)</f>
         <v>0.9574271077563381</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="24"/>
-      <c r="F16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
         <f>SX*SQRT(N/(N-1))</f>
         <v>3.0276503540974917</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
@@ -1143,17 +1143,17 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E11:E17"/>
     <mergeCell ref="H11:H17"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F11:G11"/>
